--- a/out/myths/ontology_scope_notes_with_counts.xlsx
+++ b/out/myths/ontology_scope_notes_with_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/_glos/out/myths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96421E6C-A8CC-A841-AA45-9815110FF4A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF477D9-9F3A-9942-81CD-A3ACAE0D2C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="2680" windowWidth="26440" windowHeight="15420" xr2:uid="{A2CCC1BA-EC93-B545-A3F6-8C9AC2684A10}"/>
   </bookViews>
